--- a/data_2022_11_26bTI_raw.xlsx
+++ b/data_2022_11_26bTI_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhixichen/Documents/USAID 2022/2022 Model Revision/Code/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ti/Sites/GitHub/MATLAB_GitHub/USAID_MATLAB/USAID_WV_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057BE36-46DB-5C4F-9611-503AE4102B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B524E1-D0B9-7449-B655-619ADEBE2151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="1500" windowWidth="30720" windowHeight="17500" xr2:uid="{1E82DDA4-CBF0-5342-9EDC-D38DBB598B8B}"/>
+    <workbookView xWindow="3040" yWindow="2420" windowWidth="30720" windowHeight="17500" activeTab="1" xr2:uid="{1E82DDA4-CBF0-5342-9EDC-D38DBB598B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="ES" sheetId="4" r:id="rId1"/>
@@ -120,40 +120,40 @@
     <t>Witnessing Physical Violence</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>PHV</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PSV</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>MD</t>
+    <t>Physical_Violence</t>
+  </si>
+  <si>
+    <t>Law_Enforcement</t>
+  </si>
+  <si>
+    <t>Gang_Membership</t>
+  </si>
+  <si>
+    <t>Incarceration</t>
+  </si>
+  <si>
+    <t>Positive_Perception</t>
+  </si>
+  <si>
+    <t>School_Dropout</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Sexual_Violence</t>
+  </si>
+  <si>
+    <t>Teenage_Mothers</t>
+  </si>
+  <si>
+    <t>Psych_Violence</t>
+  </si>
+  <si>
+    <t>Substance_Abuse</t>
+  </si>
+  <si>
+    <t>Migration_Displacement</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,7 +197,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -240,9 +252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DD20D5-E21E-0C48-8E5A-D218D598DB99}">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,31 +586,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>36</v>
@@ -1229,72 +1242,16 @@
       </c>
       <c r="AM10" s="1"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
     </row>
   </sheetData>
@@ -1306,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294CF58-433C-F841-98BA-145FB6D2EB08}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,31 +1274,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>36</v>
